--- a/Formative02/Formative02.xlsx
+++ b/Formative02/Formative02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wp8798rh\OneDrive - MNSCU\GitHub\eprof1\MIS362-01\Formative02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vn4655pt\source\repos\MIS362\Formative02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_C5089F65629FCEBEE634834F5FA033B13652DF75" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B94BCF55-A942-4032-9519-FDFC6301D76E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FB7629-F0FB-4056-BD20-E82F3BD6B184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1224" windowWidth="11760" windowHeight="7932" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16080" yWindow="-3120" windowWidth="29040" windowHeight="15840" tabRatio="646" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-NamedRanges" sheetId="1" r:id="rId1"/>
@@ -47,13 +47,26 @@
     <definedName name="Total_fixed">#REF!</definedName>
     <definedName name="Total_Sales">#REF!</definedName>
     <definedName name="Total_variable">#REF!</definedName>
+    <definedName name="totalcosts">'1-NamedRanges'!$B$2</definedName>
+    <definedName name="totalsales">'1-NamedRanges'!$B$1</definedName>
     <definedName name="Unit_contrib_margin">#REF!</definedName>
     <definedName name="Variable_cost_unit">#REF!</definedName>
     <definedName name="Variable_costs_unit">#REF!</definedName>
     <definedName name="Variable_Unit_Cost">#REF!</definedName>
     <definedName name="Ygnp">'4-StringParsing'!$C$6:$C$23</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -208,6 +221,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Tahoma"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Payment</t>
     </r>
@@ -239,10 +253,12 @@
     <font>
       <sz val="8"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -257,6 +273,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -341,7 +358,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Date" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -367,6 +384,1248 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5-Charts'!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>892</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>742</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1133</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1083</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>829</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1176</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1105</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1159</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5-Charts'!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.76</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.74</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.46</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.84</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.65</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.2300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.13</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.49</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.77</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.47</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.26</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.81</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7355-4D98-9728-55CDFB6B110A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="623820895"/>
+        <c:axId val="623823807"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="623820895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623823807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="623823807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623820895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D444BD4-7BB2-417D-9235-28686EDE535B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -692,13 +1951,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -721,7 +1980,10 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="9">
+        <f>totalsales-totalcosts</f>
+        <v>42000</v>
+      </c>
       <c r="C3" t="s">
         <v>38</v>
       </c>
@@ -743,8 +2005,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -775,7 +2037,10 @@
       <c r="A5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="10">
+        <f>PMT(B2,B3*12,B1)</f>
+        <v>-10500.000016071486</v>
+      </c>
       <c r="C5" t="s">
         <v>39</v>
       </c>
@@ -793,20 +2058,20 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.08984375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="7.109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1796875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="7.08984375" style="1"/>
+    <col min="8" max="8" width="18.21875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="7.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1">
@@ -899,7 +2164,10 @@
       <c r="D10" s="2">
         <v>3</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <f>VLOOKUP( D10,$D$2:$E$6,2)*D10</f>
+        <v>36000</v>
+      </c>
       <c r="F10" s="14" t="s">
         <v>47</v>
       </c>
@@ -908,25 +2176,37 @@
       <c r="D11" s="2">
         <v>7</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <f t="shared" ref="E11:E13" si="0">VLOOKUP( D11,$D$2:$E$6,2)*D11</f>
+        <v>77000</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="D12" s="2">
         <v>13</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>130000</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="D13" s="2">
         <v>22</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>198000</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="D14" s="2">
         <v>8</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <f>VLOOKUP( D14,$D$2:$E$6,2)*D14</f>
+        <v>88000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -940,17 +2220,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.08984375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="7.109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" style="4" customWidth="1"/>
     <col min="2" max="2" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="7.08984375" style="4"/>
+    <col min="3" max="3" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="7.109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -981,6 +2262,9 @@
       <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="E5" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -990,11 +2274,21 @@
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="11" t="s">
-        <v>40</v>
+      <c r="B6" s="8" t="str">
+        <f>LEFT(A6,4)</f>
+        <v>1950</v>
+      </c>
+      <c r="C6" s="8" t="str">
+        <f>MID(A6,6,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="str">
+        <f>RIGHT(A6,6)</f>
+        <v>1618.4</v>
+      </c>
+      <c r="E6" s="4">
+        <f>VALUE(D6)</f>
+        <v>1618.4</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -1005,9 +2299,22 @@
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="8" t="str">
+        <f t="shared" ref="B7:B23" si="0">LEFT(A7,4)</f>
+        <v>1950</v>
+      </c>
+      <c r="C7" s="8" t="str">
+        <f t="shared" ref="C7:C23" si="1">MID(A7,6,1)</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="8" t="str">
+        <f t="shared" ref="D7:D23" si="2">RIGHT(A7,6)</f>
+        <v>1667.2</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" ref="E7:E23" si="3">VALUE(D7)</f>
+        <v>1667.2</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="7"/>
@@ -1017,9 +2324,22 @@
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>1950</v>
+      </c>
+      <c r="C8" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D8" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>1733.1</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="3"/>
+        <v>1733.1</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="7"/>
@@ -1029,9 +2349,22 @@
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="B9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>1950</v>
+      </c>
+      <c r="C9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>1763.9</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="3"/>
+        <v>1763.9</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
@@ -1041,9 +2374,22 @@
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>1951</v>
+      </c>
+      <c r="C10" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>1782.9</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="3"/>
+        <v>1782.9</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="7"/>
@@ -1053,9 +2399,22 @@
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>1951</v>
+      </c>
+      <c r="C11" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D11" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>1814.9</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="3"/>
+        <v>1814.9</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
@@ -1065,9 +2424,22 @@
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="B12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>1951</v>
+      </c>
+      <c r="C12" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D12" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>1851.6</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="3"/>
+        <v>1851.6</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
@@ -1077,9 +2449,22 @@
       <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="B13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>1951</v>
+      </c>
+      <c r="C13" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D13" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>1855.8</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="3"/>
+        <v>1855.8</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
@@ -1089,9 +2474,22 @@
       <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="B14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>1952</v>
+      </c>
+      <c r="C14" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>1876.7</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="3"/>
+        <v>1876.7</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="7"/>
@@ -1101,9 +2499,22 @@
       <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="B15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>1952</v>
+      </c>
+      <c r="C15" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D15" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>1878.2</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="3"/>
+        <v>1878.2</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="7"/>
@@ -1113,9 +2524,22 @@
       <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="B16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>1952</v>
+      </c>
+      <c r="C16" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D16" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>1889.9</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="3"/>
+        <v>1889.9</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="7"/>
@@ -1125,9 +2549,22 @@
       <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>1952</v>
+      </c>
+      <c r="C17" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D17" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>1951.9</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="3"/>
+        <v>1951.9</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="7"/>
@@ -1137,9 +2574,22 @@
       <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>1953</v>
+      </c>
+      <c r="C18" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D18" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>1987.4</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="3"/>
+        <v>1987.4</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="7"/>
@@ -1149,9 +2599,22 @@
       <c r="A19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="B19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>1953</v>
+      </c>
+      <c r="C19" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D19" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>2004.3</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="3"/>
+        <v>2004.3</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
@@ -1161,9 +2624,22 @@
       <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="B20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>1953</v>
+      </c>
+      <c r="C20" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D20" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>1990.2</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="3"/>
+        <v>1990.2</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="7"/>
@@ -1173,9 +2649,22 @@
       <c r="A21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="B21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>1953</v>
+      </c>
+      <c r="C21" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D21" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>1958.6</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="3"/>
+        <v>1958.6</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
@@ -1185,9 +2674,22 @@
       <c r="A22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="B22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>1954</v>
+      </c>
+      <c r="C22" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>1949.7</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="3"/>
+        <v>1949.7</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="7"/>
@@ -1197,13 +2699,30 @@
       <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="B23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>1999</v>
+      </c>
+      <c r="C23" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D23" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>8906.4</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="3"/>
+        <v>8906.4</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="D24" s="15"/>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="4">
+        <f>AVERAGE(E6:E23)</f>
+        <v>2248.9500000000003</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1217,15 +2736,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B51"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1233,24 +2752,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>689</v>
       </c>
       <c r="B2">
         <v>1.99</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>170</v>
       </c>
@@ -1258,7 +2777,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1189</v>
       </c>
@@ -1266,7 +2785,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>892</v>
       </c>
@@ -1274,7 +2793,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>105</v>
       </c>
@@ -1282,7 +2801,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>763</v>
       </c>
@@ -1290,7 +2809,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>215</v>
       </c>
@@ -1298,7 +2817,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>239</v>
       </c>
@@ -1306,7 +2825,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>742</v>
       </c>
@@ -1314,7 +2833,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>890</v>
       </c>
@@ -1322,7 +2841,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>288</v>
       </c>
@@ -1330,7 +2849,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>802</v>
       </c>
@@ -1338,7 +2857,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>108</v>
       </c>
@@ -1346,7 +2865,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>118</v>
       </c>
@@ -1354,7 +2873,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>246</v>
       </c>
@@ -1644,5 +3163,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>